--- a/biology/Botanique/Uvariopsis_dicaprio/Uvariopsis_dicaprio.xlsx
+++ b/biology/Botanique/Uvariopsis_dicaprio/Uvariopsis_dicaprio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Uvariopsis dicaprio est une espèce d'arbre de la famille des Annonaceae[1]. Elle est originaire du Cameroun (en Afrique). Cette espèce a été décrite pour la première fois en l'an 2022.
+Uvariopsis dicaprio est une espèce d'arbre de la famille des Annonaceae. Elle est originaire du Cameroun (en Afrique). Cette espèce a été décrite pour la première fois en l'an 2022.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été nommée par les scientifiques du jardin botanique britannique de Kew qui ont mis à l'honneur l'acteur Leonardo DiCaprio qui s'est engagé en 2020 pour la préservation de la forêt tropicale où cet arbre a été découvert[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été nommée par les scientifiques du jardin botanique britannique de Kew qui ont mis à l'honneur l'acteur Leonardo DiCaprio qui s'est engagé en 2020 pour la préservation de la forêt tropicale où cet arbre a été découvert.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Uvariopsis dicaprio est un petit arbre de 4 mètres de haut[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uvariopsis dicaprio est un petit arbre de 4 mètres de haut.
 Ses feuilles sont persistantes.
 Ses fleurs sont grandes, jaune-verdâtre, groupées et sont directement placées sur le tronc.
 </t>
@@ -576,10 +592,12 @@
           <t>Habitat et écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Uvariopsis dicaprio est originaire du Cameroun (en Afrique) et plus précisément, il a été trouvé dans la forêt d'Ebo[4] (au Nord de Douala).
-Les études menées semblent indiquer que cette espèce est en danger critique d'extinction étant donné que seulement une cinquantaine d'arbres de cette espèces ont été trouvés[5] et étant donné que la forêt où se situe Uvariopsis dicaprio est menacée par les diverses exploitations humaines comme les exploitations forestières et minières mais également par la conversion d'une partie de cette forêt en terre de plantations[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uvariopsis dicaprio est originaire du Cameroun (en Afrique) et plus précisément, il a été trouvé dans la forêt d'Ebo (au Nord de Douala).
+Les études menées semblent indiquer que cette espèce est en danger critique d'extinction étant donné que seulement une cinquantaine d'arbres de cette espèces ont été trouvés et étant donné que la forêt où se situe Uvariopsis dicaprio est menacée par les diverses exploitations humaines comme les exploitations forestières et minières mais également par la conversion d'une partie de cette forêt en terre de plantations.
 </t>
         </is>
       </c>
